--- a/SolrSearchLRTTool/SolrSearchLRTTool/UploadData/uploaddata.xlsx
+++ b/SolrSearchLRTTool/SolrSearchLRTTool/UploadData/uploaddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3DEB4F9E-3EDD-42C6-893E-F5303E29BD7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F92A559F-7534-4502-BD4F-770BA1EE29B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="661">
   <si>
     <t>働き方改革</t>
   </si>
@@ -712,9 +712,6 @@
     <t>パルプ</t>
   </si>
   <si>
-    <t>ダイオキシン類対策特別措置法 or 特定化学物質の環境への排出量の把握等及び管理の改善の促進に関する法律</t>
-  </si>
-  <si>
     <t>ベアリング</t>
   </si>
   <si>
@@ -1999,13 +1996,13 @@
     <t>麻薬向精神薬</t>
   </si>
   <si>
-    <t>商品先物取引法</t>
-  </si>
-  <si>
     <t>QueryString</t>
   </si>
   <si>
     <t>QueryID</t>
+  </si>
+  <si>
+    <t>ダイオキシン類対策特別措置法 OR 特定化学物質の環境への排出量の把握等及び管理の改善の促進に関する法律</t>
   </si>
 </sst>
 </file>
@@ -2323,10 +2320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A661"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="B571" sqref="B571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,10 +2333,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4187,7 +4184,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>660</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4195,7 +4192,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -4203,7 +4200,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -4211,7 +4208,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -4219,7 +4216,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4224,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -4235,7 +4232,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -4243,7 +4240,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,7 +4248,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -4259,7 +4256,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4267,7 +4264,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +4272,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4283,7 +4280,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4291,7 +4288,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +4296,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4307,7 +4304,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4315,7 +4312,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -4323,7 +4320,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,7 +4328,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4339,7 +4336,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4347,7 +4344,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4355,7 +4352,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,7 +4360,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4371,7 +4368,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,7 +4376,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4387,7 +4384,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4395,7 +4392,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4403,7 +4400,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4411,7 +4408,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -4419,7 +4416,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4427,7 +4424,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,7 +4432,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4443,7 +4440,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4451,7 +4448,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +4456,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +4464,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +4472,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,7 +4480,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4491,7 +4488,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4499,7 +4496,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4507,7 +4504,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4515,7 +4512,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4523,7 +4520,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4531,7 +4528,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -4539,7 +4536,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4547,7 +4544,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -4555,7 +4552,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,7 +4560,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +4568,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,7 +4576,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4584,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,7 +4592,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,7 +4600,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4611,7 +4608,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4619,7 +4616,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4627,7 +4624,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,7 +4632,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4643,7 +4640,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4651,7 +4648,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +4656,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4667,7 +4664,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4675,7 +4672,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4683,7 +4680,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4691,7 +4688,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4699,7 +4696,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4707,7 +4704,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4715,7 +4712,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4723,7 +4720,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +4728,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,7 +4736,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4744,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4755,7 +4752,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +4760,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4771,7 +4768,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4779,7 +4776,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4787,7 +4784,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4795,7 +4792,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4803,7 +4800,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4811,7 +4808,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4816,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4827,7 +4824,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4835,7 +4832,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4843,7 +4840,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4851,7 +4848,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4859,7 +4856,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4867,7 +4864,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4875,7 +4872,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4883,7 +4880,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4888,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4899,7 +4896,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4907,7 +4904,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4915,7 +4912,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4923,7 +4920,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,7 +4928,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4939,7 +4936,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,7 +4944,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4955,7 +4952,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,7 +4960,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4971,7 +4968,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4979,7 +4976,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4987,7 +4984,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4995,7 +4992,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -5003,7 +5000,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -5011,7 +5008,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -5019,7 +5016,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -5027,7 +5024,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5032,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -5043,7 +5040,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -5051,7 +5048,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -5067,7 +5064,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -5075,7 +5072,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -5083,7 +5080,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -5091,7 +5088,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -5099,7 +5096,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -5107,7 +5104,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -5115,7 +5112,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -5123,7 +5120,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -5131,7 +5128,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -5139,7 +5136,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -5147,7 +5144,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -5155,7 +5152,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -5163,7 +5160,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -5171,7 +5168,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -5179,7 +5176,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -5187,7 +5184,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -5195,7 +5192,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -5203,7 +5200,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -5211,7 +5208,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,7 +5216,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -5227,7 +5224,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -5235,7 +5232,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -5243,7 +5240,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -5259,7 +5256,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -5267,7 +5264,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -5275,7 +5272,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -5283,7 +5280,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5288,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -5299,7 +5296,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -5307,7 +5304,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -5315,7 +5312,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -5323,7 +5320,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -5331,7 +5328,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -5339,7 +5336,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -5347,7 +5344,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -5355,7 +5352,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +5360,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -5371,7 +5368,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -5379,7 +5376,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -5387,7 +5384,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -5395,7 +5392,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -5403,7 +5400,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -5411,7 +5408,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -5419,7 +5416,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -5427,7 +5424,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5432,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -5443,7 +5440,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +5448,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -5459,7 +5456,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -5467,7 +5464,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -5475,7 +5472,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5483,7 +5480,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5491,7 +5488,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5499,7 +5496,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,7 +5504,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -5515,7 +5512,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -5523,7 +5520,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5531,7 +5528,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5539,7 +5536,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -5547,7 +5544,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5555,7 +5552,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5563,7 +5560,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -5571,7 +5568,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,7 +5576,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5587,7 +5584,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5595,7 +5592,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5603,7 +5600,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,7 +5608,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5619,7 +5616,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5627,7 +5624,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5635,7 +5632,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5643,7 +5640,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5651,7 +5648,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5659,7 +5656,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5667,7 +5664,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5675,7 +5672,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,7 +5680,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5691,7 +5688,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5699,7 +5696,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5707,7 +5704,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5715,7 +5712,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5723,7 +5720,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5731,7 +5728,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5739,7 +5736,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -5747,7 +5744,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5755,7 +5752,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5763,7 +5760,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5771,7 +5768,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5779,7 +5776,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5787,7 +5784,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5795,7 +5792,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -5803,7 +5800,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -5811,7 +5808,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5819,7 +5816,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -5827,7 +5824,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5835,7 +5832,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5843,7 +5840,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5851,7 +5848,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5859,7 +5856,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5867,7 +5864,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -5875,7 +5872,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -5883,7 +5880,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5891,7 +5888,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5899,7 +5896,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -5907,7 +5904,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -5915,7 +5912,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -5923,7 +5920,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -5931,7 +5928,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -5939,7 +5936,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -5947,7 +5944,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -5955,7 +5952,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -5963,7 +5960,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -5971,7 +5968,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -5979,7 +5976,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -5987,7 +5984,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -5995,7 +5992,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -6003,7 +6000,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -6011,7 +6008,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +6016,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -6027,7 +6024,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -6035,7 +6032,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -6043,7 +6040,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -6051,7 +6048,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -6059,7 +6056,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -6067,7 +6064,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -6075,7 +6072,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -6083,7 +6080,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -6091,7 +6088,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -6099,7 +6096,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,7 +6104,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -6115,7 +6112,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -6123,7 +6120,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -6131,7 +6128,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -6139,7 +6136,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -6147,7 +6144,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -6155,7 +6152,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -6163,7 +6160,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -6171,7 +6168,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -6179,7 +6176,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -6187,7 +6184,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -6195,7 +6192,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -6203,7 +6200,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -6211,7 +6208,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -6219,7 +6216,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -6227,7 +6224,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -6235,7 +6232,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -6243,7 +6240,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -6251,7 +6248,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -6259,7 +6256,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -6267,7 +6264,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -6275,7 +6272,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -6283,7 +6280,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -6291,7 +6288,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -6299,7 +6296,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -6307,7 +6304,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -6315,7 +6312,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -6323,7 +6320,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -6331,7 +6328,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -6339,7 +6336,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -6347,7 +6344,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -6355,7 +6352,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -6363,7 +6360,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -6371,7 +6368,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -6379,7 +6376,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -6387,7 +6384,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -6395,7 +6392,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -6403,7 +6400,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -6411,7 +6408,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -6419,7 +6416,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -6427,7 +6424,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -6435,7 +6432,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -6443,7 +6440,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -6451,7 +6448,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -6459,7 +6456,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -6467,7 +6464,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -6475,7 +6472,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -6483,7 +6480,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -6491,7 +6488,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -6499,7 +6496,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -6507,7 +6504,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -6515,7 +6512,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -6523,7 +6520,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -6531,7 +6528,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -6539,7 +6536,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -6547,7 +6544,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -6555,7 +6552,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -6563,7 +6560,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -6571,7 +6568,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -6579,7 +6576,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -6587,7 +6584,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -6595,7 +6592,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -6603,7 +6600,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -6611,7 +6608,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -6619,7 +6616,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -6627,7 +6624,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -6635,7 +6632,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -6643,7 +6640,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -6651,7 +6648,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -6659,7 +6656,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -6667,7 +6664,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -6675,7 +6672,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -6683,7 +6680,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -6691,7 +6688,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -6699,7 +6696,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -6707,7 +6704,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -6715,7 +6712,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -6723,7 +6720,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -6731,7 +6728,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -6739,7 +6736,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -6747,7 +6744,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -6755,7 +6752,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -6763,7 +6760,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -6771,7 +6768,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -6779,7 +6776,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -6787,7 +6784,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -6795,7 +6792,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -6803,7 +6800,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -6811,7 +6808,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -6819,7 +6816,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -6827,7 +6824,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -6835,7 +6832,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -6843,7 +6840,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -6851,7 +6848,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -6859,7 +6856,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -6867,7 +6864,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -6875,7 +6872,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -6883,7 +6880,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -6891,7 +6888,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -6899,7 +6896,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +6904,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -6915,7 +6912,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -6923,7 +6920,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -6931,7 +6928,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -6939,7 +6936,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -6947,7 +6944,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -6955,7 +6952,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -6963,7 +6960,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -6971,7 +6968,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -6979,7 +6976,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -6987,7 +6984,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -6995,7 +6992,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -7003,7 +7000,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -7011,7 +7008,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -7019,7 +7016,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -7027,7 +7024,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -7035,7 +7032,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -7043,7 +7040,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -7051,7 +7048,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -7059,7 +7056,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -7067,7 +7064,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -7075,7 +7072,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -7083,7 +7080,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -7091,7 +7088,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -7099,7 +7096,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -7107,7 +7104,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -7115,7 +7112,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -7123,7 +7120,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -7131,7 +7128,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -7139,7 +7136,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -7147,7 +7144,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -7155,7 +7152,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -7163,7 +7160,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -7171,7 +7168,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -7179,7 +7176,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -7187,7 +7184,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -7195,7 +7192,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -7203,7 +7200,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -7211,7 +7208,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -7219,7 +7216,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -7227,7 +7224,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -7235,7 +7232,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -7243,7 +7240,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -7251,7 +7248,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7256,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -7267,7 +7264,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -7275,7 +7272,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -7283,7 +7280,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -7291,7 +7288,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -7299,7 +7296,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -7307,7 +7304,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -7315,7 +7312,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -7323,7 +7320,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7328,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -7339,7 +7336,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -7347,7 +7344,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -7355,7 +7352,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -7363,7 +7360,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -7371,7 +7368,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -7379,7 +7376,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -7387,7 +7384,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,7 +7392,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -7403,7 +7400,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -7411,7 +7408,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -7419,7 +7416,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -7427,7 +7424,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -7435,7 +7432,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -7443,7 +7440,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -7451,7 +7448,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -7459,7 +7456,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -7467,7 +7464,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7472,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -7483,7 +7480,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -7491,7 +7488,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -7499,7 +7496,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -7507,7 +7504,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -7515,7 +7512,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -7523,7 +7520,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -7531,7 +7528,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -7539,7 +7536,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -7547,7 +7544,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -7555,7 +7552,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -7563,7 +7560,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -7571,7 +7568,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -7579,7 +7576,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -7587,7 +7584,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -7595,7 +7592,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -7603,7 +7600,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -7611,15 +7608,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661">
-        <v>660</v>
-      </c>
-      <c r="B661" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
